--- a/Server/破碎世界服务端/ResCfg/Talent.xlsx
+++ b/Server/破碎世界服务端/ResCfg/Talent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityRes\GitHub\posuishijie\PoSuiShiJie-master\Assets\Resources\ResCfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F6DB2-61B2-4019-819A-C55E9B4930D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1353D19D-EE0B-497B-93B4-A1AE0E69C5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,22 @@
   </si>
   <si>
     <t>ap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50014</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +557,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,8 +671,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>50005</v>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -675,8 +691,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>50006</v>
+      <c r="A7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -695,8 +711,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>50007</v>
+      <c r="A8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -715,8 +731,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>50008</v>
+      <c r="A9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
